--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3186.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3186.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.216586640454402</v>
+        <v>0.9705607891082764</v>
       </c>
       <c r="B1">
-        <v>2.308808143135836</v>
+        <v>1.822853207588196</v>
       </c>
       <c r="C1">
-        <v>8.033151647598986</v>
+        <v>3.173735380172729</v>
       </c>
       <c r="D1">
-        <v>2.996339592889754</v>
+        <v>3.963399887084961</v>
       </c>
       <c r="E1">
-        <v>1.381991417964003</v>
+        <v>1.123701572418213</v>
       </c>
     </row>
   </sheetData>
